--- a/biology/Médecine/1158_en_santé_et_médecine/1158_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1158_en_santé_et_médecine/1158_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1158_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1158_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1158 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1158_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1158_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de l'hôtel-Dieu d'Abbeville, capitale du Ponthieu[1].
-Fondation de l'hôpital de Brolo (it) de Milan, par fusion des hôpitaux San Barnaba in Brolo et San Stefano alla Ruota[2].
-Imberte, parente de Raymond Bérenger, comte de Provence, fonde à Millau un hôpital « que le nombre de ses dépendances fait surnommer l'« hôpital-Mage[3] ».
-1148-1158 : fondation à Oxford, en Angleterre, de l'hôpital de Cold Norton, par Avelina, dame de Norton, et Robert de Chesney (en), évêque de Lincoln[4].
-1149-1158 : Raymond, évêque de Maguelone, promulgue les statuts de la léproserie Saint-Lazare de Montpellier, premiers règlements connus de cette sorte[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de l'hôtel-Dieu d'Abbeville, capitale du Ponthieu.
+Fondation de l'hôpital de Brolo (it) de Milan, par fusion des hôpitaux San Barnaba in Brolo et San Stefano alla Ruota.
+Imberte, parente de Raymond Bérenger, comte de Provence, fonde à Millau un hôpital « que le nombre de ses dépendances fait surnommer l'« hôpital-Mage ».
+1148-1158 : fondation à Oxford, en Angleterre, de l'hôpital de Cold Norton, par Avelina, dame de Norton, et Robert de Chesney (en), évêque de Lincoln.
+1149-1158 : Raymond, évêque de Maguelone, promulgue les statuts de la léproserie Saint-Lazare de Montpellier, premiers règlements connus de cette sorte.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1158_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1158_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Jean, médecin, cité dans une charte de donation de Juhel II, seigneur de Mayenne, à l'abbaye de Savigny, en Normandie[6].
-Fl. Jean de Saint-Albans, docteur en médecine à Oxford, à ne pas confondre avec le médecin et théologien Jean de Saint-Albans († 1253)[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Jean, médecin, cité dans une charte de donation de Juhel II, seigneur de Mayenne, à l'abbaye de Savigny, en Normandie.
+Fl. Jean de Saint-Albans, docteur en médecine à Oxford, à ne pas confondre avec le médecin et théologien Jean de Saint-Albans († 1253).</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1158_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1158_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hildegarde de Bingen publie son traité « des subtilités des créatures divines ou livre des plantes médicinales » (Subtilitatum diversarum naturarum creaturarum libri novem, sive Liber simplicis medicinae), plus connu sous le titre de Physica[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hildegarde de Bingen publie son traité « des subtilités des créatures divines ou livre des plantes médicinales » (Subtilitatum diversarum naturarum creaturarum libri novem, sive Liber simplicis medicinae), plus connu sous le titre de Physica.
 </t>
         </is>
       </c>
